--- a/doc/04_外部設計書_EM_メニュー.xlsx
+++ b/doc/04_外部設計書_EM_メニュー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33CE1D-D6A6-4DF6-B0AE-7C715A058851}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93F043B-2411-41E3-9E23-BAC5208F6060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュ―" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="132">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -767,13 +767,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>プルダウンメニュ―選択</t>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>残量データに100を足す。</t>
     <rPh sb="0" eb="2">
       <t>ザンリョウ</t>
@@ -1428,24 +1421,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,9 +1461,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1497,19 +1479,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2566,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN156"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AE2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2576,154 +2569,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="42">
         <v>45085</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2862,7 +2855,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="43"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2946,7 +2939,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -3030,7 +3023,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -3114,7 +3107,7 @@
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -3196,7 +3189,7 @@
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -3278,7 +3271,7 @@
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -3360,7 +3353,7 @@
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -3444,7 +3437,7 @@
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -3526,7 +3519,7 @@
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="D24" s="43"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -3608,7 +3601,7 @@
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -3690,7 +3683,7 @@
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="D28" s="43"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -3772,7 +3765,7 @@
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -3854,7 +3847,7 @@
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -3936,7 +3929,7 @@
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="D34" s="43"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -4018,7 +4011,7 @@
     <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -4102,7 +4095,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="45"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -4144,7 +4137,7 @@
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -4186,7 +4179,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="45"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -4272,7 +4265,7 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E42" s="2"/>
@@ -4318,7 +4311,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="44"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="2" t="s">
         <v>71</v>
       </c>
@@ -4362,7 +4355,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="44"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4404,7 +4397,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="2"/>
@@ -4450,7 +4443,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="44"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4494,7 +4487,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="44"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -4536,7 +4529,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E48" s="8"/>
@@ -4582,7 +4575,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="44"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="8" t="s">
         <v>65</v>
       </c>
@@ -4626,7 +4619,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="44"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -4668,7 +4661,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="8"/>
@@ -4714,7 +4707,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="44"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="8" t="s">
         <v>64</v>
       </c>
@@ -4758,7 +4751,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="44"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4800,7 +4793,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E54" s="8"/>
@@ -4846,7 +4839,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="44"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="8" t="s">
         <v>90</v>
       </c>
@@ -4890,7 +4883,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="44"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -4932,7 +4925,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E57" s="8"/>
@@ -4978,7 +4971,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="44"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="1" t="s">
         <v>67</v>
       </c>
@@ -5022,7 +5015,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="44"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="1" t="s">
         <v>68</v>
       </c>
@@ -5066,7 +5059,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="44"/>
+      <c r="D60" s="20"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -5106,7 +5099,7 @@
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E61" s="8"/>
@@ -5151,7 +5144,7 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="D62" s="44"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="2" t="s">
         <v>66</v>
       </c>
@@ -5194,7 +5187,7 @@
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="D63" s="44"/>
+      <c r="D63" s="20"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -5235,7 +5228,7 @@
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E64" s="8"/>
@@ -5280,7 +5273,7 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="D65" s="44"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="8" t="s">
         <v>75</v>
       </c>
@@ -5323,7 +5316,7 @@
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="D66" s="44"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -5364,7 +5357,7 @@
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E67" s="8"/>
@@ -5409,7 +5402,7 @@
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
-      <c r="D68" s="44"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="8" t="s">
         <v>69</v>
       </c>
@@ -5452,7 +5445,7 @@
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="D69" s="44"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="8" t="s">
         <v>70</v>
       </c>
@@ -5495,7 +5488,7 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="D70" s="44"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -5536,7 +5529,7 @@
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="D71" s="44" t="s">
+      <c r="D71" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E71" s="8"/>
@@ -5663,7 +5656,7 @@
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
-      <c r="D74" s="44" t="s">
+      <c r="D74" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E74" s="8"/>
@@ -5790,7 +5783,7 @@
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="20" t="s">
         <v>79</v>
       </c>
       <c r="E77" s="8"/>
@@ -5917,7 +5910,7 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="D80" s="44" t="s">
+      <c r="D80" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E80" s="8"/>
@@ -6044,7 +6037,7 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="D83" s="44" t="s">
+      <c r="D83" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E83" s="8"/>
@@ -6090,7 +6083,7 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="E84" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -6132,7 +6125,7 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="E85" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -6213,7 +6206,7 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="20" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="8"/>
@@ -6259,7 +6252,7 @@
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="E88" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
@@ -6340,7 +6333,7 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
-      <c r="D90" s="44" t="s">
+      <c r="D90" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E90" s="8"/>
@@ -6386,7 +6379,7 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="E91" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -6467,7 +6460,7 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
-      <c r="D93" s="44" t="s">
+      <c r="D93" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
@@ -6513,7 +6506,7 @@
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="E94" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -6595,7 +6588,7 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="20" t="s">
         <v>85</v>
       </c>
       <c r="E96" s="8"/>
@@ -6603,7 +6596,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -6641,9 +6634,9 @@
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="44"/>
+      <c r="D97" s="20"/>
       <c r="E97" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
@@ -6685,7 +6678,7 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="44"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
@@ -6727,7 +6720,7 @@
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="44" t="s">
+      <c r="D99" s="20" t="s">
         <v>86</v>
       </c>
       <c r="E99" s="8"/>
@@ -6735,7 +6728,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -6773,9 +6766,9 @@
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="44"/>
+      <c r="D100" s="20"/>
       <c r="E100" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -6817,7 +6810,7 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="44"/>
+      <c r="D101" s="20"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -6859,7 +6852,7 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="44" t="s">
+      <c r="D102" s="20" t="s">
         <v>87</v>
       </c>
       <c r="E102" s="8"/>
@@ -6905,9 +6898,9 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="44"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -6949,7 +6942,7 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="44"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -6991,7 +6984,7 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="44" t="s">
+      <c r="D105" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E105" s="8"/>
@@ -7037,9 +7030,9 @@
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="44"/>
+      <c r="D106" s="20"/>
       <c r="E106" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
@@ -7081,7 +7074,7 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="44"/>
+      <c r="D107" s="20"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
@@ -7123,7 +7116,7 @@
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="44" t="s">
+      <c r="D108" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E108" s="8"/>
@@ -7169,9 +7162,9 @@
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="44"/>
+      <c r="D109" s="20"/>
       <c r="E109" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -7213,7 +7206,7 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="44"/>
+      <c r="D110" s="20"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
@@ -7255,7 +7248,7 @@
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="44" t="s">
+      <c r="D111" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E111" s="8"/>
@@ -7301,9 +7294,9 @@
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="44"/>
+      <c r="D112" s="20"/>
       <c r="E112" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
@@ -7345,7 +7338,7 @@
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="44"/>
+      <c r="D113" s="20"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
@@ -7387,7 +7380,7 @@
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="44"/>
+      <c r="D114" s="20"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
@@ -7429,7 +7422,7 @@
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="44"/>
+      <c r="D115" s="20"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
@@ -7471,7 +7464,7 @@
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="44"/>
+      <c r="D116" s="20"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
@@ -7513,7 +7506,7 @@
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="44"/>
+      <c r="D117" s="20"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
@@ -7555,7 +7548,7 @@
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="44"/>
+      <c r="D118" s="20"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
@@ -8268,7 +8261,7 @@
       </c>
       <c r="U132" s="14"/>
       <c r="V132" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W132" s="14"/>
       <c r="X132" s="15"/>
@@ -8396,13 +8389,13 @@
         <v>11</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
       <c r="G135" s="13"/>
       <c r="H135" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I135" s="16"/>
       <c r="J135" s="15"/>
@@ -8446,13 +8439,13 @@
         <v>12</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
       <c r="G136" s="13"/>
       <c r="H136" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I136" s="16"/>
       <c r="J136" s="15"/>
@@ -8496,13 +8489,13 @@
         <v>13</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
       <c r="G137" s="13"/>
       <c r="H137" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I137" s="16"/>
       <c r="J137" s="15"/>
@@ -8546,13 +8539,13 @@
         <v>14</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
       <c r="G138" s="13"/>
       <c r="H138" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I138" s="16"/>
       <c r="J138" s="15"/>
@@ -8596,13 +8589,13 @@
         <v>15</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
       <c r="G139" s="13"/>
       <c r="H139" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I139" s="16"/>
       <c r="J139" s="15"/>
@@ -8646,13 +8639,13 @@
         <v>16</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
       <c r="G140" s="13"/>
       <c r="H140" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I140" s="16"/>
       <c r="J140" s="15"/>
@@ -8674,7 +8667,7 @@
       </c>
       <c r="U140" s="14"/>
       <c r="V140" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W140" s="14"/>
       <c r="X140" s="15"/>
@@ -8702,13 +8695,13 @@
         <v>17</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
       <c r="G141" s="13"/>
       <c r="H141" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I141" s="16"/>
       <c r="J141" s="15"/>
@@ -8719,7 +8712,7 @@
       <c r="M141" s="15"/>
       <c r="N141" s="17"/>
       <c r="O141" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P141" s="15"/>
       <c r="Q141" s="15"/>
@@ -8758,13 +8751,13 @@
         <v>18</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
       <c r="G142" s="13"/>
       <c r="H142" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I142" s="16"/>
       <c r="J142" s="15"/>
@@ -8808,13 +8801,13 @@
         <v>19</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
       <c r="G143" s="13"/>
       <c r="H143" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I143" s="16"/>
       <c r="J143" s="15"/>
@@ -8858,19 +8851,19 @@
         <v>20</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
       <c r="G144" s="13"/>
       <c r="H144" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I144" s="16"/>
       <c r="J144" s="15"/>
       <c r="K144" s="17"/>
       <c r="L144" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M144" s="15"/>
       <c r="N144" s="17"/>
@@ -8908,13 +8901,13 @@
         <v>21</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
       <c r="G145" s="13"/>
       <c r="H145" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I145" s="16"/>
       <c r="J145" s="15"/>
@@ -8936,7 +8929,7 @@
       </c>
       <c r="U145" s="14"/>
       <c r="V145" s="17">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W145" s="14"/>
       <c r="X145" s="15"/>
@@ -8964,13 +8957,13 @@
         <v>22</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
       <c r="G146" s="13"/>
       <c r="H146" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I146" s="16"/>
       <c r="J146" s="15"/>
@@ -9014,13 +9007,13 @@
         <v>23</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
       <c r="G147" s="13"/>
       <c r="H147" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I147" s="16"/>
       <c r="J147" s="15"/>
@@ -9467,8 +9460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B251F0D2-5D86-4F68-862C-E1766DDFDE67}">
   <dimension ref="A1:AN156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA125" sqref="AA125"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9477,154 +9470,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="42">
         <v>45085</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -9763,7 +9756,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="43"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -9847,7 +9840,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -9931,7 +9924,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -10015,7 +10008,7 @@
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -10097,7 +10090,7 @@
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -10179,7 +10172,7 @@
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -10261,7 +10254,7 @@
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -10345,7 +10338,7 @@
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -10427,7 +10420,7 @@
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="D24" s="43"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -10509,7 +10502,7 @@
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -10591,7 +10584,7 @@
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="D28" s="43"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -10673,7 +10666,7 @@
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -10755,7 +10748,7 @@
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -10837,7 +10830,7 @@
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="D34" s="43"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -10919,7 +10912,7 @@
     <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -11003,7 +10996,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="45"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -11045,7 +11038,7 @@
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -11087,7 +11080,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="45"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -11173,7 +11166,7 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E42" s="2"/>
@@ -11219,7 +11212,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="44"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="2" t="s">
         <v>71</v>
       </c>
@@ -11263,7 +11256,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="44"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -11305,7 +11298,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="2"/>
@@ -11351,7 +11344,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="44"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="2" t="s">
         <v>66</v>
       </c>
@@ -11395,7 +11388,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="44"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -11437,7 +11430,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E48" s="8"/>
@@ -11483,7 +11476,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="44"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="8" t="s">
         <v>65</v>
       </c>
@@ -11527,7 +11520,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="44"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -11569,7 +11562,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="8"/>
@@ -11615,7 +11608,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="44"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="8" t="s">
         <v>64</v>
       </c>
@@ -11659,7 +11652,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="44"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -11701,7 +11694,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E54" s="8"/>
@@ -11747,7 +11740,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="44"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="8" t="s">
         <v>90</v>
       </c>
@@ -11791,7 +11784,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="44"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -11833,7 +11826,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E57" s="8"/>
@@ -11879,7 +11872,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="44"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="1" t="s">
         <v>67</v>
       </c>
@@ -11923,7 +11916,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="44"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="1" t="s">
         <v>68</v>
       </c>
@@ -11967,7 +11960,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="44"/>
+      <c r="D60" s="20"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -12007,7 +12000,7 @@
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E61" s="8"/>
@@ -12052,7 +12045,7 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="D62" s="44"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="2" t="s">
         <v>66</v>
       </c>
@@ -12095,7 +12088,7 @@
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="D63" s="44"/>
+      <c r="D63" s="20"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -12136,7 +12129,7 @@
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E64" s="8"/>
@@ -12181,7 +12174,7 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="D65" s="44"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="8" t="s">
         <v>75</v>
       </c>
@@ -12224,7 +12217,7 @@
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="D66" s="44"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -12265,7 +12258,7 @@
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E67" s="8"/>
@@ -12310,7 +12303,7 @@
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
-      <c r="D68" s="44"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="8" t="s">
         <v>69</v>
       </c>
@@ -12353,7 +12346,7 @@
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="D69" s="44"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="8" t="s">
         <v>70</v>
       </c>
@@ -12396,7 +12389,7 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="D70" s="44"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -12437,7 +12430,7 @@
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="D71" s="44" t="s">
+      <c r="D71" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E71" s="8"/>
@@ -12564,7 +12557,7 @@
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
-      <c r="D74" s="44" t="s">
+      <c r="D74" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E74" s="8"/>
@@ -12691,7 +12684,7 @@
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="20" t="s">
         <v>79</v>
       </c>
       <c r="E77" s="8"/>
@@ -12818,7 +12811,7 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="D80" s="44" t="s">
+      <c r="D80" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E80" s="8"/>
@@ -12945,7 +12938,7 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="D83" s="44" t="s">
+      <c r="D83" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E83" s="8"/>
@@ -12991,7 +12984,7 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="E84" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -13033,7 +13026,7 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="E85" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -13114,7 +13107,7 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="20" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="8"/>
@@ -13160,7 +13153,7 @@
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="E88" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
@@ -13241,7 +13234,7 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
-      <c r="D90" s="44" t="s">
+      <c r="D90" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E90" s="8"/>
@@ -13287,7 +13280,7 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="E91" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -13368,7 +13361,7 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
-      <c r="D93" s="44" t="s">
+      <c r="D93" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
@@ -13414,7 +13407,7 @@
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="E94" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -13496,7 +13489,7 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="20" t="s">
         <v>85</v>
       </c>
       <c r="E96" s="8"/>
@@ -13504,7 +13497,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -13542,9 +13535,9 @@
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="44"/>
+      <c r="D97" s="20"/>
       <c r="E97" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
@@ -13586,7 +13579,7 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="44"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
@@ -13628,7 +13621,7 @@
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="44" t="s">
+      <c r="D99" s="20" t="s">
         <v>86</v>
       </c>
       <c r="E99" s="8"/>
@@ -13636,7 +13629,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -13674,9 +13667,9 @@
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="44"/>
+      <c r="D100" s="20"/>
       <c r="E100" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -13718,7 +13711,7 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="44"/>
+      <c r="D101" s="20"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -13760,7 +13753,7 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="44" t="s">
+      <c r="D102" s="20" t="s">
         <v>87</v>
       </c>
       <c r="E102" s="8"/>
@@ -13806,9 +13799,9 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="44"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -13850,7 +13843,7 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="44"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -13892,7 +13885,7 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="44" t="s">
+      <c r="D105" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E105" s="8"/>
@@ -13938,9 +13931,9 @@
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="44"/>
+      <c r="D106" s="20"/>
       <c r="E106" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
@@ -13982,7 +13975,7 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="44"/>
+      <c r="D107" s="20"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
@@ -14024,7 +14017,7 @@
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="44" t="s">
+      <c r="D108" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E108" s="8"/>
@@ -14070,9 +14063,9 @@
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="44"/>
+      <c r="D109" s="20"/>
       <c r="E109" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -14114,7 +14107,7 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="44"/>
+      <c r="D110" s="20"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
@@ -14156,7 +14149,7 @@
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="44" t="s">
+      <c r="D111" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E111" s="8"/>
@@ -14202,9 +14195,9 @@
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="44"/>
+      <c r="D112" s="20"/>
       <c r="E112" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
@@ -14246,7 +14239,7 @@
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="44"/>
+      <c r="D113" s="20"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
@@ -14288,7 +14281,7 @@
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="44"/>
+      <c r="D114" s="20"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
@@ -14330,7 +14323,7 @@
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="44"/>
+      <c r="D115" s="20"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
@@ -14372,7 +14365,7 @@
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="44"/>
+      <c r="D116" s="20"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
@@ -14414,7 +14407,7 @@
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="44"/>
+      <c r="D117" s="20"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
@@ -14456,7 +14449,7 @@
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="44"/>
+      <c r="D118" s="20"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
@@ -15169,7 +15162,7 @@
       </c>
       <c r="U132" s="14"/>
       <c r="V132" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W132" s="14"/>
       <c r="X132" s="15"/>
@@ -15297,13 +15290,13 @@
         <v>11</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
       <c r="G135" s="13"/>
       <c r="H135" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I135" s="16"/>
       <c r="J135" s="15"/>
@@ -15347,13 +15340,13 @@
         <v>12</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
       <c r="G136" s="13"/>
       <c r="H136" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I136" s="16"/>
       <c r="J136" s="15"/>
@@ -15397,13 +15390,13 @@
         <v>13</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
       <c r="G137" s="13"/>
       <c r="H137" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I137" s="16"/>
       <c r="J137" s="15"/>
@@ -15447,13 +15440,13 @@
         <v>14</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
       <c r="G138" s="13"/>
       <c r="H138" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I138" s="16"/>
       <c r="J138" s="15"/>
@@ -15497,13 +15490,13 @@
         <v>15</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
       <c r="G139" s="13"/>
       <c r="H139" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I139" s="16"/>
       <c r="J139" s="15"/>
@@ -15547,13 +15540,13 @@
         <v>16</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
       <c r="G140" s="13"/>
       <c r="H140" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I140" s="16"/>
       <c r="J140" s="15"/>
@@ -15575,7 +15568,7 @@
       </c>
       <c r="U140" s="14"/>
       <c r="V140" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W140" s="14"/>
       <c r="X140" s="15"/>
@@ -15603,13 +15596,13 @@
         <v>17</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
       <c r="G141" s="13"/>
       <c r="H141" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I141" s="16"/>
       <c r="J141" s="15"/>
@@ -15620,7 +15613,7 @@
       <c r="M141" s="15"/>
       <c r="N141" s="17"/>
       <c r="O141" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P141" s="15"/>
       <c r="Q141" s="15"/>
@@ -15659,13 +15652,13 @@
         <v>18</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
       <c r="G142" s="13"/>
       <c r="H142" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I142" s="16"/>
       <c r="J142" s="15"/>
@@ -15709,13 +15702,13 @@
         <v>19</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
       <c r="G143" s="13"/>
       <c r="H143" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I143" s="16"/>
       <c r="J143" s="15"/>
@@ -15759,19 +15752,19 @@
         <v>20</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
       <c r="G144" s="13"/>
       <c r="H144" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I144" s="16"/>
       <c r="J144" s="15"/>
       <c r="K144" s="17"/>
       <c r="L144" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M144" s="15"/>
       <c r="N144" s="17"/>
@@ -15809,13 +15802,13 @@
         <v>21</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
       <c r="G145" s="13"/>
       <c r="H145" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I145" s="16"/>
       <c r="J145" s="15"/>
@@ -15837,7 +15830,7 @@
       </c>
       <c r="U145" s="14"/>
       <c r="V145" s="17">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W145" s="14"/>
       <c r="X145" s="15"/>
@@ -15865,13 +15858,13 @@
         <v>22</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
       <c r="G146" s="13"/>
       <c r="H146" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I146" s="16"/>
       <c r="J146" s="15"/>
@@ -15915,13 +15908,13 @@
         <v>23</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
       <c r="G147" s="13"/>
       <c r="H147" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I147" s="16"/>
       <c r="J147" s="15"/>
@@ -16338,6 +16331,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -16345,14 +16345,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -16368,8 +16361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52EEF7A-6C1D-4FC4-82BF-68CF43C78341}">
   <dimension ref="A1:AN156"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16378,154 +16371,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="42">
         <v>45085</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -16664,7 +16657,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="43"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -16748,7 +16741,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -16832,7 +16825,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -16916,7 +16909,7 @@
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -16998,7 +16991,7 @@
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -17080,7 +17073,7 @@
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -17162,7 +17155,7 @@
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -17246,7 +17239,7 @@
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -17328,7 +17321,7 @@
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="D24" s="43"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -17410,7 +17403,7 @@
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -17492,7 +17485,7 @@
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="D28" s="43"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -17574,7 +17567,7 @@
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -17656,7 +17649,7 @@
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -17738,7 +17731,7 @@
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="D34" s="43"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -17820,7 +17813,7 @@
     <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -17904,7 +17897,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="45"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -17946,7 +17939,7 @@
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -17988,7 +17981,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="45"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -18074,7 +18067,7 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E42" s="2"/>
@@ -18120,7 +18113,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="44"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="2" t="s">
         <v>71</v>
       </c>
@@ -18164,7 +18157,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="44"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -18206,7 +18199,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="2"/>
@@ -18252,7 +18245,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="44"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="2" t="s">
         <v>66</v>
       </c>
@@ -18296,7 +18289,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="44"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -18338,7 +18331,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E48" s="8"/>
@@ -18384,7 +18377,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="44"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="8" t="s">
         <v>65</v>
       </c>
@@ -18428,7 +18421,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="44"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -18470,7 +18463,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="8"/>
@@ -18516,7 +18509,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="44"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="8" t="s">
         <v>64</v>
       </c>
@@ -18560,7 +18553,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="44"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -18602,7 +18595,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E54" s="8"/>
@@ -18648,7 +18641,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="44"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="8" t="s">
         <v>90</v>
       </c>
@@ -18692,7 +18685,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="44"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -18734,7 +18727,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E57" s="8"/>
@@ -18780,7 +18773,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="44"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="1" t="s">
         <v>67</v>
       </c>
@@ -18824,7 +18817,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="44"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="1" t="s">
         <v>68</v>
       </c>
@@ -18868,7 +18861,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="44"/>
+      <c r="D60" s="20"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -18908,7 +18901,7 @@
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E61" s="8"/>
@@ -18953,7 +18946,7 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="D62" s="44"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="2" t="s">
         <v>66</v>
       </c>
@@ -18996,7 +18989,7 @@
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="D63" s="44"/>
+      <c r="D63" s="20"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -19037,7 +19030,7 @@
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E64" s="8"/>
@@ -19082,7 +19075,7 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="D65" s="44"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="8" t="s">
         <v>75</v>
       </c>
@@ -19125,7 +19118,7 @@
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="D66" s="44"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -19166,7 +19159,7 @@
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E67" s="8"/>
@@ -19211,7 +19204,7 @@
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
-      <c r="D68" s="44"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="8" t="s">
         <v>69</v>
       </c>
@@ -19254,7 +19247,7 @@
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="D69" s="44"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="8" t="s">
         <v>70</v>
       </c>
@@ -19297,7 +19290,7 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="D70" s="44"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -19338,7 +19331,7 @@
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="D71" s="44" t="s">
+      <c r="D71" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E71" s="8"/>
@@ -19465,7 +19458,7 @@
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
-      <c r="D74" s="44" t="s">
+      <c r="D74" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E74" s="8"/>
@@ -19592,7 +19585,7 @@
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="20" t="s">
         <v>79</v>
       </c>
       <c r="E77" s="8"/>
@@ -19719,7 +19712,7 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="D80" s="44" t="s">
+      <c r="D80" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E80" s="8"/>
@@ -19846,7 +19839,7 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="D83" s="44" t="s">
+      <c r="D83" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E83" s="8"/>
@@ -19892,7 +19885,7 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="E84" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -19934,7 +19927,7 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="E85" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -20015,7 +20008,7 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="20" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="8"/>
@@ -20061,7 +20054,7 @@
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="E88" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
@@ -20142,7 +20135,7 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
-      <c r="D90" s="44" t="s">
+      <c r="D90" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E90" s="8"/>
@@ -20188,7 +20181,7 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="E91" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -20269,7 +20262,7 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
-      <c r="D93" s="44" t="s">
+      <c r="D93" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
@@ -20315,7 +20308,7 @@
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="E94" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -20397,7 +20390,7 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="20" t="s">
         <v>85</v>
       </c>
       <c r="E96" s="8"/>
@@ -20405,7 +20398,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -20443,9 +20436,9 @@
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="44"/>
+      <c r="D97" s="20"/>
       <c r="E97" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
@@ -20487,7 +20480,7 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="44"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
@@ -20529,7 +20522,7 @@
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="44" t="s">
+      <c r="D99" s="20" t="s">
         <v>86</v>
       </c>
       <c r="E99" s="8"/>
@@ -20537,7 +20530,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -20575,9 +20568,9 @@
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="44"/>
+      <c r="D100" s="20"/>
       <c r="E100" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -20619,7 +20612,7 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="44"/>
+      <c r="D101" s="20"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -20661,7 +20654,7 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="44" t="s">
+      <c r="D102" s="20" t="s">
         <v>87</v>
       </c>
       <c r="E102" s="8"/>
@@ -20707,9 +20700,9 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="44"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -20751,7 +20744,7 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="44"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -20793,7 +20786,7 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="44" t="s">
+      <c r="D105" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E105" s="8"/>
@@ -20839,9 +20832,9 @@
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="44"/>
+      <c r="D106" s="20"/>
       <c r="E106" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
@@ -20883,7 +20876,7 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="44"/>
+      <c r="D107" s="20"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
@@ -20925,7 +20918,7 @@
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="44" t="s">
+      <c r="D108" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E108" s="8"/>
@@ -20971,9 +20964,9 @@
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="44"/>
+      <c r="D109" s="20"/>
       <c r="E109" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -21015,7 +21008,7 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="44"/>
+      <c r="D110" s="20"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
@@ -21057,7 +21050,7 @@
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="44" t="s">
+      <c r="D111" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E111" s="8"/>
@@ -21103,9 +21096,9 @@
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="44"/>
+      <c r="D112" s="20"/>
       <c r="E112" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
@@ -21147,7 +21140,7 @@
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="44"/>
+      <c r="D113" s="20"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
@@ -21189,7 +21182,7 @@
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="44"/>
+      <c r="D114" s="20"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
@@ -21231,7 +21224,7 @@
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="44"/>
+      <c r="D115" s="20"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
@@ -21273,7 +21266,7 @@
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="44"/>
+      <c r="D116" s="20"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
@@ -21315,7 +21308,7 @@
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="44"/>
+      <c r="D117" s="20"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
@@ -21357,7 +21350,7 @@
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="44"/>
+      <c r="D118" s="20"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
@@ -22070,7 +22063,7 @@
       </c>
       <c r="U132" s="14"/>
       <c r="V132" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W132" s="14"/>
       <c r="X132" s="15"/>
@@ -22198,13 +22191,13 @@
         <v>11</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
       <c r="G135" s="13"/>
       <c r="H135" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I135" s="16"/>
       <c r="J135" s="15"/>
@@ -22248,13 +22241,13 @@
         <v>12</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
       <c r="G136" s="13"/>
       <c r="H136" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I136" s="16"/>
       <c r="J136" s="15"/>
@@ -22298,13 +22291,13 @@
         <v>13</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
       <c r="G137" s="13"/>
       <c r="H137" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I137" s="16"/>
       <c r="J137" s="15"/>
@@ -22348,13 +22341,13 @@
         <v>14</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
       <c r="G138" s="13"/>
       <c r="H138" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I138" s="16"/>
       <c r="J138" s="15"/>
@@ -22398,13 +22391,13 @@
         <v>15</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
       <c r="G139" s="13"/>
       <c r="H139" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I139" s="16"/>
       <c r="J139" s="15"/>
@@ -22448,13 +22441,13 @@
         <v>16</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
       <c r="G140" s="13"/>
       <c r="H140" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I140" s="16"/>
       <c r="J140" s="15"/>
@@ -22476,7 +22469,7 @@
       </c>
       <c r="U140" s="14"/>
       <c r="V140" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W140" s="14"/>
       <c r="X140" s="15"/>
@@ -22504,13 +22497,13 @@
         <v>17</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
       <c r="G141" s="13"/>
       <c r="H141" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I141" s="16"/>
       <c r="J141" s="15"/>
@@ -22521,7 +22514,7 @@
       <c r="M141" s="15"/>
       <c r="N141" s="17"/>
       <c r="O141" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P141" s="15"/>
       <c r="Q141" s="15"/>
@@ -22560,13 +22553,13 @@
         <v>18</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
       <c r="G142" s="13"/>
       <c r="H142" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I142" s="16"/>
       <c r="J142" s="15"/>
@@ -22610,13 +22603,13 @@
         <v>19</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
       <c r="G143" s="13"/>
       <c r="H143" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I143" s="16"/>
       <c r="J143" s="15"/>
@@ -22660,19 +22653,19 @@
         <v>20</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
       <c r="G144" s="13"/>
       <c r="H144" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I144" s="16"/>
       <c r="J144" s="15"/>
       <c r="K144" s="17"/>
       <c r="L144" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M144" s="15"/>
       <c r="N144" s="17"/>
@@ -22710,13 +22703,13 @@
         <v>21</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
       <c r="G145" s="13"/>
       <c r="H145" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I145" s="16"/>
       <c r="J145" s="15"/>
@@ -22738,7 +22731,7 @@
       </c>
       <c r="U145" s="14"/>
       <c r="V145" s="17">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W145" s="14"/>
       <c r="X145" s="15"/>
@@ -22766,13 +22759,13 @@
         <v>22</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
       <c r="G146" s="13"/>
       <c r="H146" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I146" s="16"/>
       <c r="J146" s="15"/>
@@ -22816,13 +22809,13 @@
         <v>23</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
       <c r="G147" s="13"/>
       <c r="H147" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I147" s="16"/>
       <c r="J147" s="15"/>
@@ -23239,6 +23232,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -23246,14 +23246,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
